--- a/CRISP_columns.xlsx
+++ b/CRISP_columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Data Curation/Data Profiling/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6024F74-F994-A54F-ADF9-73F94E36E28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728E26F-6513-6444-B80F-BDE767C5CCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{8E835BE2-FDB3-7D42-8901-6F2A13F3444C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{8E835BE2-FDB3-7D42-8901-6F2A13F3444C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>Agri system overview (single entry)</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Bibliography</t>
+  </si>
+  <si>
+    <t>Add left hand type</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +439,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -537,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,7 +880,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,6 +1226,9 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
+      <c r="F13" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="J13" t="s">
         <v>108</v>
       </c>
@@ -1227,6 +1240,9 @@
       <c r="E14" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="J14" t="s">
         <v>109</v>
       </c>
@@ -1329,6 +1345,9 @@
       </c>
       <c r="C22" t="s">
         <v>32</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>94</v>
